--- a/biology/Zoologie/Hypopachus_ustus/Hypopachus_ustus.xlsx
+++ b/biology/Zoologie/Hypopachus_ustus/Hypopachus_ustus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypopachus ustus est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypopachus ustus est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Guatemala, au Mexique et au Salvador. Elle est présente du niveau de la mer jusqu'à 1 000 m d'altitude[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Guatemala, au Mexique et au Salvador. Elle est présente du niveau de la mer jusqu'à 1 000 m d'altitude,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypopachus ustus est d'une couleur brun violacé. Une ligne médiane de couleur blanche part du museau jusqu'à l'arrière du corps. Son ventre est gris-verdâtre et présente également une ligne au niveau de la gorge. Sa peau est entièrement lisse.
 </t>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du latin ustus, « cinabre brûlé », une matière colorante rougeâtre, lui a été donné en référence à sa couleur.
 </t>
@@ -604,7 +622,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1903 : Descriptions of new batrachians in the British Museum. Annals and Magazine of Natural History, sér. 7, vol. 12, p. 552-557 (texte intégral).
 Cope, 1866 : Fourth contribution to the herpetology of tropical America. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 18, p. 123-132 (texte intégral).
